--- a/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
+++ b/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABDF3EC-516C-104D-82F9-BBC4785E4F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24192574-7B12-FA4C-8C08-47EDFF3CC1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3880" yWindow="2880" windowWidth="28040" windowHeight="17440" xr2:uid="{19A56954-7A74-5647-9FDF-D514421742EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Section 17(3)" sheetId="2" r:id="rId1"/>
-    <sheet name="Section 17(4)" sheetId="3" r:id="rId2"/>
-    <sheet name="Section 17(5)(a)" sheetId="4" r:id="rId3"/>
-    <sheet name="Section 17(5)(b)" sheetId="7" r:id="rId4"/>
-    <sheet name="Priority ZEV Class" sheetId="11" r:id="rId5"/>
-    <sheet name="Section 17(5)(c)" sheetId="8" r:id="rId6"/>
-    <sheet name="Section 17(5)(d)" sheetId="9" r:id="rId7"/>
+    <sheet name="Model Year" sheetId="12" r:id="rId1"/>
+    <sheet name="Section 17(3)" sheetId="2" r:id="rId2"/>
+    <sheet name="Section 17(4)" sheetId="3" r:id="rId3"/>
+    <sheet name="Section 17(5)(a)" sheetId="4" r:id="rId4"/>
+    <sheet name="Section 17(5)(b)" sheetId="7" r:id="rId5"/>
+    <sheet name="Priority ZEV Class" sheetId="11" r:id="rId6"/>
+    <sheet name="Section 17(5)(c)" sheetId="8" r:id="rId7"/>
+    <sheet name="Section 17(5)(d)" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -471,10 +472,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09CE670-BF10-DF44-8FE5-11A8B01784BE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C65A0B-D0BB-E24B-9926-FABF73A0EB2F}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -507,7 +520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F307804-949D-3A46-A335-5FF491C84566}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -519,7 +532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F82AF4-275E-A740-B0B8-C2E446D618C6}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -555,7 +568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5809DAA6-FC38-104E-9117-6E703153F566}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -595,7 +608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E646FB7B-E3DF-EC4B-B22F-B51CDA392C5F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -616,7 +629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC33D11-4CAF-4F4A-92DA-707B8A2A3658}">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -661,7 +674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F086B9-ACA4-F148-854C-0618C5A00B58}">
   <dimension ref="A1:G1"/>
   <sheetViews>

--- a/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
+++ b/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24192574-7B12-FA4C-8C08-47EDFF3CC1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F845939-22AD-6543-AA18-63DAD7501258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3880" yWindow="2880" windowWidth="28040" windowHeight="17440" xr2:uid="{19A56954-7A74-5647-9FDF-D514421742EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Year" sheetId="12" r:id="rId1"/>
-    <sheet name="Section 17(3)" sheetId="2" r:id="rId2"/>
-    <sheet name="Section 17(4)" sheetId="3" r:id="rId3"/>
-    <sheet name="Section 17(5)(a)" sheetId="4" r:id="rId4"/>
-    <sheet name="Section 17(5)(b)" sheetId="7" r:id="rId5"/>
-    <sheet name="Priority ZEV Class" sheetId="11" r:id="rId6"/>
-    <sheet name="Section 17(5)(c)" sheetId="8" r:id="rId7"/>
-    <sheet name="Section 17(5)(d)" sheetId="9" r:id="rId8"/>
+    <sheet name="ZEV Class Ordering" sheetId="14" r:id="rId2"/>
+    <sheet name="Supplier Details" sheetId="2" r:id="rId3"/>
+    <sheet name="Section 17(4)" sheetId="3" r:id="rId4"/>
+    <sheet name="Compliance Ratio Reductions" sheetId="7" r:id="rId5"/>
+    <sheet name="Previous Balance" sheetId="4" r:id="rId6"/>
+    <sheet name="Credits" sheetId="9" r:id="rId7"/>
+    <sheet name="Offsets and Transfers Away" sheetId="8" r:id="rId8"/>
+    <sheet name="Preliminary Ending Balance" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Vehicle Class</t>
   </si>
@@ -78,12 +79,6 @@
     <t>Records Address</t>
   </si>
   <si>
-    <t>Reference Id</t>
-  </si>
-  <si>
-    <t>Legacy Reference Id</t>
-  </si>
-  <si>
     <t>Debit or Credit</t>
   </si>
   <si>
@@ -91,9 +86,6 @@
   </si>
   <si>
     <t>Credit Type</t>
-  </si>
-  <si>
-    <t>The ZEV class of credits that should be used first when offsetting debits of the unspecified ZEV class</t>
   </si>
 </sst>
 </file>
@@ -484,6 +476,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4935B597-930B-EA4E-BCE8-917F9C310B41}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C65A0B-D0BB-E24B-9926-FABF73A0EB2F}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -520,7 +527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F307804-949D-3A46-A335-5FF491C84566}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -528,42 +535,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F82AF4-275E-A740-B0B8-C2E446D618C6}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -609,19 +580,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E646FB7B-E3DF-EC4B-B22F-B51CDA392C5F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F82AF4-275E-A740-B0B8-C2E446D618C6}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="91.33203125" customWidth="1"/>
+    <col min="1" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -630,42 +616,71 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F086B9-ACA4-F148-854C-0618C5A00B58}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC33D11-4CAF-4F4A-92DA-707B8A2A3658}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -674,43 +689,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F086B9-ACA4-F148-854C-0618C5A00B58}">
-  <dimension ref="A1:G1"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F66F5F-C88E-1542-A176-3B58C5328BD4}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
+++ b/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F845939-22AD-6543-AA18-63DAD7501258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C872D-CEC8-5C4A-959D-38D3CF98CBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3880" yWindow="2880" windowWidth="28040" windowHeight="17440" xr2:uid="{19A56954-7A74-5647-9FDF-D514421742EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model Year" sheetId="12" r:id="rId1"/>
-    <sheet name="ZEV Class Ordering" sheetId="14" r:id="rId2"/>
-    <sheet name="Supplier Details" sheetId="2" r:id="rId3"/>
-    <sheet name="Section 17(4)" sheetId="3" r:id="rId4"/>
-    <sheet name="Compliance Ratio Reductions" sheetId="7" r:id="rId5"/>
-    <sheet name="Previous Balance" sheetId="4" r:id="rId6"/>
-    <sheet name="Credits" sheetId="9" r:id="rId7"/>
-    <sheet name="Offsets and Transfers Away" sheetId="8" r:id="rId8"/>
-    <sheet name="Preliminary Ending Balance" sheetId="13" r:id="rId9"/>
+    <sheet name="Details" sheetId="12" r:id="rId1"/>
+    <sheet name="Supplier Details" sheetId="2" r:id="rId2"/>
+    <sheet name="Section 17(4)" sheetId="3" r:id="rId3"/>
+    <sheet name="Compliance Ratio Reductions" sheetId="7" r:id="rId4"/>
+    <sheet name="Beginning Balance" sheetId="4" r:id="rId5"/>
+    <sheet name="Credits" sheetId="9" r:id="rId6"/>
+    <sheet name="Offsets and Transfers Away" sheetId="8" r:id="rId7"/>
+    <sheet name="Preliminary Ending Balance" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Vehicle Class</t>
   </si>
@@ -86,6 +85,9 @@
   </si>
   <si>
     <t>Credit Type</t>
+  </si>
+  <si>
+    <t>ZEV Class Ordering</t>
   </si>
 </sst>
 </file>
@@ -465,32 +467,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09CE670-BF10-DF44-8FE5-11A8B01784BE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4935B597-930B-EA4E-BCE8-917F9C310B41}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C65A0B-D0BB-E24B-9926-FABF73A0EB2F}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -527,7 +527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F307804-949D-3A46-A335-5FF491C84566}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -539,7 +539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5809DAA6-FC38-104E-9117-6E703153F566}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -579,7 +579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F82AF4-275E-A740-B0B8-C2E446D618C6}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -615,7 +615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F086B9-ACA4-F148-854C-0618C5A00B58}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -652,7 +652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC33D11-4CAF-4F4A-92DA-707B8A2A3658}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -689,7 +689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F66F5F-C88E-1542-A176-3B58C5328BD4}">
   <dimension ref="A1:E1"/>
   <sheetViews>

--- a/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
+++ b/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24192574-7B12-FA4C-8C08-47EDFF3CC1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C872D-CEC8-5C4A-959D-38D3CF98CBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3880" yWindow="2880" windowWidth="28040" windowHeight="17440" xr2:uid="{19A56954-7A74-5647-9FDF-D514421742EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model Year" sheetId="12" r:id="rId1"/>
-    <sheet name="Section 17(3)" sheetId="2" r:id="rId2"/>
+    <sheet name="Details" sheetId="12" r:id="rId1"/>
+    <sheet name="Supplier Details" sheetId="2" r:id="rId2"/>
     <sheet name="Section 17(4)" sheetId="3" r:id="rId3"/>
-    <sheet name="Section 17(5)(a)" sheetId="4" r:id="rId4"/>
-    <sheet name="Section 17(5)(b)" sheetId="7" r:id="rId5"/>
-    <sheet name="Priority ZEV Class" sheetId="11" r:id="rId6"/>
-    <sheet name="Section 17(5)(c)" sheetId="8" r:id="rId7"/>
-    <sheet name="Section 17(5)(d)" sheetId="9" r:id="rId8"/>
+    <sheet name="Compliance Ratio Reductions" sheetId="7" r:id="rId4"/>
+    <sheet name="Beginning Balance" sheetId="4" r:id="rId5"/>
+    <sheet name="Credits" sheetId="9" r:id="rId6"/>
+    <sheet name="Offsets and Transfers Away" sheetId="8" r:id="rId7"/>
+    <sheet name="Preliminary Ending Balance" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Vehicle Class</t>
   </si>
@@ -78,12 +78,6 @@
     <t>Records Address</t>
   </si>
   <si>
-    <t>Reference Id</t>
-  </si>
-  <si>
-    <t>Legacy Reference Id</t>
-  </si>
-  <si>
     <t>Debit or Credit</t>
   </si>
   <si>
@@ -93,7 +87,7 @@
     <t>Credit Type</t>
   </si>
   <si>
-    <t>The ZEV class of credits that should be used first when offsetting debits of the unspecified ZEV class</t>
+    <t>ZEV Class Ordering</t>
   </si>
 </sst>
 </file>
@@ -473,12 +467,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09CE670-BF10-DF44-8FE5-11A8B01784BE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -533,42 +540,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F82AF4-275E-A740-B0B8-C2E446D618C6}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5809DAA6-FC38-104E-9117-6E703153F566}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -608,20 +579,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E646FB7B-E3DF-EC4B-B22F-B51CDA392C5F}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F82AF4-275E-A740-B0B8-C2E446D618C6}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="91.33203125" customWidth="1"/>
+    <col min="1" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -629,43 +615,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F086B9-ACA4-F148-854C-0618C5A00B58}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC33D11-4CAF-4F4A-92DA-707B8A2A3658}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -675,42 +690,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F086B9-ACA4-F148-854C-0618C5A00B58}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F66F5F-C88E-1542-A176-3B58C5328BD4}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
+++ b/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Desktop/zeva/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C872D-CEC8-5C4A-959D-38D3CF98CBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E4AFB7-3C6F-9F47-AE80-5148F612991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3880" yWindow="2880" windowWidth="28040" windowHeight="17440" xr2:uid="{19A56954-7A74-5647-9FDF-D514421742EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="12" r:id="rId1"/>
     <sheet name="Supplier Details" sheetId="2" r:id="rId2"/>
-    <sheet name="Section 17(4)" sheetId="3" r:id="rId3"/>
+    <sheet name="Vehicle Statistics" sheetId="3" r:id="rId3"/>
     <sheet name="Compliance Ratio Reductions" sheetId="7" r:id="rId4"/>
     <sheet name="Beginning Balance" sheetId="4" r:id="rId5"/>
     <sheet name="Credits" sheetId="9" r:id="rId6"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Vehicle Class</t>
   </si>
@@ -88,6 +88,24 @@
   </si>
   <si>
     <t>ZEV Class Ordering</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>ZEV Type</t>
+  </si>
+  <si>
+    <t>Submitted Count</t>
+  </si>
+  <si>
+    <t>Issued Count</t>
   </si>
 </sst>
 </file>
@@ -529,12 +547,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F307804-949D-3A46-A335-5FF491C84566}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
+++ b/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Desktop/zeva/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24192574-7B12-FA4C-8C08-47EDFF3CC1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E4AFB7-3C6F-9F47-AE80-5148F612991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3880" yWindow="2880" windowWidth="28040" windowHeight="17440" xr2:uid="{19A56954-7A74-5647-9FDF-D514421742EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model Year" sheetId="12" r:id="rId1"/>
-    <sheet name="Section 17(3)" sheetId="2" r:id="rId2"/>
-    <sheet name="Section 17(4)" sheetId="3" r:id="rId3"/>
-    <sheet name="Section 17(5)(a)" sheetId="4" r:id="rId4"/>
-    <sheet name="Section 17(5)(b)" sheetId="7" r:id="rId5"/>
-    <sheet name="Priority ZEV Class" sheetId="11" r:id="rId6"/>
-    <sheet name="Section 17(5)(c)" sheetId="8" r:id="rId7"/>
-    <sheet name="Section 17(5)(d)" sheetId="9" r:id="rId8"/>
+    <sheet name="Details" sheetId="12" r:id="rId1"/>
+    <sheet name="Supplier Details" sheetId="2" r:id="rId2"/>
+    <sheet name="Vehicle Statistics" sheetId="3" r:id="rId3"/>
+    <sheet name="Compliance Ratio Reductions" sheetId="7" r:id="rId4"/>
+    <sheet name="Beginning Balance" sheetId="4" r:id="rId5"/>
+    <sheet name="Credits" sheetId="9" r:id="rId6"/>
+    <sheet name="Offsets and Transfers Away" sheetId="8" r:id="rId7"/>
+    <sheet name="Preliminary Ending Balance" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Vehicle Class</t>
   </si>
@@ -78,12 +78,6 @@
     <t>Records Address</t>
   </si>
   <si>
-    <t>Reference Id</t>
-  </si>
-  <si>
-    <t>Legacy Reference Id</t>
-  </si>
-  <si>
     <t>Debit or Credit</t>
   </si>
   <si>
@@ -93,7 +87,25 @@
     <t>Credit Type</t>
   </si>
   <si>
-    <t>The ZEV class of credits that should be used first when offsetting debits of the unspecified ZEV class</t>
+    <t>ZEV Class Ordering</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>ZEV Type</t>
+  </si>
+  <si>
+    <t>Submitted Count</t>
+  </si>
+  <si>
+    <t>Issued Count</t>
   </si>
 </sst>
 </file>
@@ -473,12 +485,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09CE670-BF10-DF44-8FE5-11A8B01784BE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -522,45 +547,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F307804-949D-3A46-A335-5FF491C84566}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F82AF4-275E-A740-B0B8-C2E446D618C6}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="1" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5809DAA6-FC38-104E-9117-6E703153F566}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -608,20 +637,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E646FB7B-E3DF-EC4B-B22F-B51CDA392C5F}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F82AF4-275E-A740-B0B8-C2E446D618C6}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="91.33203125" customWidth="1"/>
+    <col min="1" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -629,43 +673,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F086B9-ACA4-F148-854C-0618C5A00B58}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC33D11-4CAF-4F4A-92DA-707B8A2A3658}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -675,42 +748,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F086B9-ACA4-F148-854C-0618C5A00B58}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F66F5F-C88E-1542-A176-3B58C5328BD4}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
+++ b/next/app/model-year-report/lib/templates/model_year_report_template.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Desktop/zeva/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E4AFB7-3C6F-9F47-AE80-5148F612991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A8444E-2219-8741-B40C-B46472DD4034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="2880" windowWidth="28040" windowHeight="17440" xr2:uid="{19A56954-7A74-5647-9FDF-D514421742EB}"/>
+    <workbookView xWindow="3600" yWindow="1660" windowWidth="28040" windowHeight="17440" xr2:uid="{19A56954-7A74-5647-9FDF-D514421742EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" sheetId="12" r:id="rId1"/>
-    <sheet name="Supplier Details" sheetId="2" r:id="rId2"/>
+    <sheet name="Supplier Details" sheetId="2" r:id="rId1"/>
+    <sheet name="Previous Volumes" sheetId="14" r:id="rId2"/>
     <sheet name="Vehicle Statistics" sheetId="3" r:id="rId3"/>
     <sheet name="Compliance Ratio Reductions" sheetId="7" r:id="rId4"/>
     <sheet name="Beginning Balance" sheetId="4" r:id="rId5"/>
     <sheet name="Credits" sheetId="9" r:id="rId6"/>
-    <sheet name="Offsets and Transfers Away" sheetId="8" r:id="rId7"/>
-    <sheet name="Preliminary Ending Balance" sheetId="13" r:id="rId8"/>
+    <sheet name="Pending Supply Credits" sheetId="15" r:id="rId7"/>
+    <sheet name="Adjustments" sheetId="16" r:id="rId8"/>
+    <sheet name="Suggested Adjustments" sheetId="17" r:id="rId9"/>
+    <sheet name="Offsets and Transfers Away" sheetId="8" r:id="rId10"/>
+    <sheet name="Preliminary Ending Balance" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>Vehicle Class</t>
   </si>
@@ -106,6 +108,9 @@
   </si>
   <si>
     <t>Issued Count</t>
+  </si>
+  <si>
+    <t>Volume</t>
   </si>
 </sst>
 </file>
@@ -484,35 +489,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09CE670-BF10-DF44-8FE5-11A8B01784BE}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C65A0B-D0BB-E24B-9926-FABF73A0EB2F}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C65A0B-D0BB-E24B-9926-FABF73A0EB2F}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -521,9 +501,10 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -538,6 +519,112 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC33D11-4CAF-4F4A-92DA-707B8A2A3658}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F66F5F-C88E-1542-A176-3B58C5328BD4}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF139D07-82BF-0848-A25D-803F4A3D9DE2}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -711,23 +798,56 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC33D11-4CAF-4F4A-92DA-707B8A2A3658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899E1038-FF57-F54A-A9F3-6C033DF5A336}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DEF3C0-3EAE-A44C-B7E1-AE086C8F392C}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -747,8 +867,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F66F5F-C88E-1542-A176-3B58C5328BD4}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93202DF-651A-F84D-B1EE-4F20F874319C}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -756,10 +876,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
